--- a/data/EvaluationQuestionnaire2018.xlsx
+++ b/data/EvaluationQuestionnaire2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdumb\Dropbox (SSD)\Packages\ODKTools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24EBB02-2221-4AA3-9555-F4C2552C3B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA790C5-04EF-44F9-A44D-C0213F76234D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F11D8977-F4D2-4A00-8670-D18A2C7E48D3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F11D8977-F4D2-4A00-8670-D18A2C7E48D3}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>Where there any topics you hoped would be covered but were not?</t>
   </si>
   <si>
-    <t>hint</t>
-  </si>
-  <si>
     <t>How engaging was the course delivered by the instructors?</t>
   </si>
   <si>
@@ -475,7 +472,10 @@
     <t>count-selected(${content_leastuseful})&lt;=3 and ((not(selected(${content_mostuseful},'data_manipulation') and selected(${content_leastuseful},'data_manipulation')) and (not(selected(${content_mostuseful},'importing_data') and selected(${content_leastuseful},'importing_data'))) and (not(selected(${content_mostuseful},'writing_functions') and selected(${content_leastuseful},'writing_functions'))) and (not(selected(${content_mostuseful},'graphics') and selected(${content_leastuseful},'graphics'))) and (not(selected(${content_mostuseful},'exporting_results') and selected(${content_leastuseful},'exporting_results'))) and (not(selected(${content_mostuseful},'data_merge') and selected(${content_leastuseful},'data_merge'))) and (not(selected(${content_mostuseful},'statistical_modelling') and selected(${content_leastuseful},'statistical_modelling')))  and (not(selected(${content_mostuseful},'finding_packages') and selected(${content_leastuseful},'finding_packages')))))</t>
   </si>
   <si>
-    <t>label::english</t>
+    <t>label::English</t>
+  </si>
+  <si>
+    <t>hint::English</t>
   </si>
 </sst>
 </file>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FED077-4478-4904-8CCC-79470910DBC6}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,65 +856,65 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -947,63 +947,63 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1011,100 +1011,100 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1115,10 +1115,10 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF414C4-E15D-4728-B19F-7C5DFD932BFE}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1145,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,10 +1162,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1173,10 +1173,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1184,540 +1184,540 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
         <v>121</v>
       </c>
-      <c r="B18" t="s">
-        <v>122</v>
-      </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B58">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B64">
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1725,10 +1725,10 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1736,10 +1736,10 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1747,10 +1747,10 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1758,10 +1758,10 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1769,10 +1769,10 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1780,10 +1780,10 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1804,24 +1804,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/EvaluationQuestionnaire2018.xlsx
+++ b/data/EvaluationQuestionnaire2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdumb\Dropbox (SSD)\Packages\ODKTools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA790C5-04EF-44F9-A44D-C0213F76234D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA57990A-DDB8-4C1C-B97C-5770AD6BFD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F11D8977-F4D2-4A00-8670-D18A2C7E48D3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F11D8977-F4D2-4A00-8670-D18A2C7E48D3}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -301,9 +301,6 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>english</t>
-  </si>
-  <si>
     <t>intro</t>
   </si>
   <si>
@@ -476,6 +473,9 @@
   </si>
   <si>
     <t>hint::English</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FED077-4478-4904-8CCC-79470910DBC6}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,25 +856,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
         <v>146</v>
-      </c>
-      <c r="D1" t="s">
-        <v>147</v>
       </c>
       <c r="E1" t="s">
         <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" t="s">
         <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -955,55 +955,55 @@
         <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -1030,18 +1030,18 @@
         <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1049,10 +1049,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1060,10 +1060,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1082,10 +1082,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,10 +1192,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -1214,10 +1214,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1280,49 +1280,49 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
         <v>120</v>
-      </c>
-      <c r="B18" t="s">
-        <v>121</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1350,49 +1350,49 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1458,18 +1458,18 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1513,18 +1513,18 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1568,40 +1568,40 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1623,40 +1623,40 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -1728,7 +1728,7 @@
         <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1780,10 +1780,10 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1796,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0189ACBA-118A-4B02-8AD7-A2C011D0E5BE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
